--- a/程序员客栈项目/因卓科技教育平台/前端开发和后台接口对接/因卓教育项目计划-全职.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/前端开发和后台接口对接/因卓教育项目计划-全职.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -3663,7 +3663,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" customHeight="1"/>
